--- a/Datasheets/DataForm_UAS_BodyCondition_2022_Pribs.xlsx
+++ b/Datasheets/DataForm_UAS_BodyCondition_2022_Pribs.xlsx
@@ -83,9 +83,6 @@
     <t>Fog       Clear       Mostly Clear       Partly Cloudy       Overcast</t>
   </si>
   <si>
-    <t>Surveyed Altitudes</t>
-  </si>
-  <si>
     <t>Flight Duration (minutes):</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
   </si>
   <si>
     <t>Nadir       3D</t>
-  </si>
-  <si>
-    <t>Notes</t>
   </si>
   <si>
     <t>Drone-GPS Offset (sec):</t>
@@ -156,12 +150,6 @@
       </rPr>
       <t>negative.</t>
     </r>
-  </si>
-  <si>
-    <t>UAS Body Condition: 2022 Alaska Sea Life Center Work</t>
-  </si>
-  <si>
-    <t>Target Identifier*</t>
   </si>
   <si>
     <t>Seal Species</t>
@@ -211,9 +199,6 @@
 Exif time</t>
   </si>
   <si>
-    <t>Calibration/Equipment Test       Field Data Collection       Scouting</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u/>
@@ -341,6 +326,47 @@
   </si>
   <si>
     <t>***Double-check that the drone is set to collect in GMT before any data are collected***</t>
+  </si>
+  <si>
+    <t>UAS Body Condition: 2022 Pribs Field Effort</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Surveyed Altitudes
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(write in any additional altitudes)</t>
+    </r>
+  </si>
+  <si>
+    <t>Target Identifier*   - or -
+Beach Transect**</t>
+  </si>
+  <si>
+    <t>Calibration/Equipment Test       Field Data Collection       Scouting       Disturbance</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Notes, including disturbance
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(one row per target for flights where intending to measure seal(s); 
+one row per altitude for disturbance flights with beach transects)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -712,7 +738,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -874,9 +900,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -892,12 +927,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -907,14 +936,8 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1291,14 +1314,14 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H21" sqref="H21:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="12" style="13" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="13" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" style="16" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" style="16" customWidth="1"/>
     <col min="6" max="6" width="6.85546875" style="16" customWidth="1"/>
@@ -1311,7 +1334,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="10" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -1320,7 +1343,7 @@
       <c r="F1" s="15"/>
       <c r="G1" s="1"/>
       <c r="H1" s="24" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1351,7 +1374,7 @@
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="28" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
@@ -1376,8 +1399,8 @@
       <c r="G4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="21" t="s">
-        <v>39</v>
+      <c r="H4" s="67" t="s">
+        <v>44</v>
       </c>
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
@@ -1396,7 +1419,7 @@
         <v>7</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
@@ -1414,8 +1437,8 @@
       <c r="G6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="68" t="s">
-        <v>42</v>
+      <c r="H6" s="55" t="s">
+        <v>37</v>
       </c>
       <c r="I6" s="31"/>
       <c r="J6" s="31"/>
@@ -1423,13 +1446,13 @@
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
       <c r="E7" s="53" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F7" s="52"/>
       <c r="G7" s="21"/>
@@ -1440,7 +1463,7 @@
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="46" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
@@ -1453,15 +1476,15 @@
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="40" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I9" s="41"/>
       <c r="J9" s="41"/>
@@ -1479,7 +1502,7 @@
       <c r="F10" s="33"/>
       <c r="G10" s="14"/>
       <c r="H10" s="43" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I10" s="44"/>
       <c r="J10" s="44"/>
@@ -1496,12 +1519,12 @@
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
       <c r="K11" s="37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="48" t="s">
@@ -1510,7 +1533,7 @@
       <c r="D12" s="49"/>
       <c r="E12" s="49"/>
       <c r="G12" s="11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H12" s="48" t="s">
         <v>8</v>
@@ -1521,14 +1544,14 @@
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="30"/>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
       <c r="G13" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H13" s="30"/>
       <c r="I13" s="20"/>
@@ -1587,7 +1610,7 @@
     </row>
     <row r="18" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="23"/>
@@ -1618,25 +1641,25 @@
         <v>1</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="60"/>
-      <c r="F20" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="60"/>
-      <c r="H20" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="58"/>
+        <v>27</v>
+      </c>
+      <c r="D20" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="63"/>
+      <c r="F20" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="63"/>
+      <c r="H20" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="61"/>
     </row>
     <row r="21" spans="1:11" s="25" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="54" t="s">
@@ -1644,20 +1667,20 @@
       </c>
       <c r="B21" s="27"/>
       <c r="C21" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="56"/>
+      <c r="F21" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="55"/>
-      <c r="F21" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="62"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="65"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="66"/>
     </row>
     <row r="22" spans="1:11" s="25" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="54" t="s">
@@ -1665,20 +1688,20 @@
       </c>
       <c r="B22" s="27"/>
       <c r="C22" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="56"/>
+      <c r="F22" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="55"/>
-      <c r="F22" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="66"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
     </row>
     <row r="23" spans="1:11" s="25" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="54" t="s">
@@ -1686,20 +1709,20 @@
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="56"/>
+      <c r="F23" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="55"/>
-      <c r="F23" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" s="66"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
     </row>
     <row r="24" spans="1:11" s="25" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="54" t="s">
@@ -1707,20 +1730,20 @@
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="56"/>
+      <c r="F24" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="55"/>
-      <c r="F24" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
     </row>
     <row r="25" spans="1:11" s="25" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="54" t="s">
@@ -1728,20 +1751,20 @@
       </c>
       <c r="B25" s="27"/>
       <c r="C25" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="56"/>
+      <c r="F25" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="55"/>
-      <c r="F25" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" s="66"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
     </row>
     <row r="26" spans="1:11" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A26" s="54" t="s">
@@ -1749,20 +1772,20 @@
       </c>
       <c r="B26" s="27"/>
       <c r="C26" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="56"/>
+      <c r="F26" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="55"/>
-      <c r="F26" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" s="66"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="67"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
     </row>
     <row r="27" spans="1:11" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A27" s="54" t="s">
@@ -1770,20 +1793,20 @@
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="56"/>
+      <c r="F27" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="55"/>
-      <c r="F27" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" s="66"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
     </row>
     <row r="28" spans="1:11" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A28" s="54" t="s">
@@ -1791,20 +1814,20 @@
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="56"/>
+      <c r="F28" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="55"/>
-      <c r="F28" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="G28" s="66"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="67"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
     </row>
     <row r="29" spans="1:11" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A29" s="54" t="s">
@@ -1812,40 +1835,23 @@
       </c>
       <c r="B29" s="27"/>
       <c r="C29" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="56"/>
+      <c r="F29" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="55"/>
-      <c r="F29" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="G29" s="66"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="67"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="F26:G26"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="F20:G20"/>
@@ -1859,6 +1865,23 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.3125" top="0.60416666666666696" bottom="0.57291666666666696" header="0.33" footer="0.16"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -1866,7 +1889,7 @@
     <oddHeader xml:space="preserve">&amp;L&amp;"Arial,Bold"UAS Body Condition: 2022 Alaska Sea Life Center
 &amp;CFlight #___     &amp;RPage ___ of ___   </oddHeader>
     <oddFooter>&amp;CIF FOUND, PLEASE RETURN TO: Alaska Fisheries Science Center, Marine Mammal Lab, 7600 Sand Point Way NE, Seattle, WA 98115, fax: 206-526-6615</oddFooter>
-    <firstHeader>&amp;L*Target Identifier = &amp;"Arial,Bold"Pribs_YYYYMMDD_fl##_[letter]&amp;"Arial,Regular" (single letter in alphabetical order)&amp;RPage 1 of __</firstHeader>
+    <firstHeader>&amp;L*Target Identifier = &amp;"Arial,Bold"Pribs_YYYYMMDD_fl##_[letter]&amp;"Arial,Regular" (single letter in alphabetical order) / **Beach Transect = field-assigned descriptor&amp;RPage 1 of __</firstHeader>
     <firstFooter>&amp;L
 &amp;C
 IF FOUND, PLEASE RETURN TO: Alaska Fisheries Science Center, Marine Mammal Lab, 7600 Sand Point Way NE, Seattle, WA 98115, fax: 206-526-6615</firstFooter>
